--- a/_Documentation/Tag dictionary.xlsx
+++ b/_Documentation/Tag dictionary.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
